--- a/com/statlume/nba/sheets/mismatch.xlsx
+++ b/com/statlume/nba/sheets/mismatch.xlsx
@@ -654,12 +654,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -669,135 +669,135 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>30.8</v>
+        <v>33.7</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>15.6</v>
+        <v>28.1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>21.4</v>
+        <v>38.4</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>15.5</v>
+        <v>-135</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>-140</v>
+        <v>27.5</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>88.75</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>PTS</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18.4</v>
+        <v>33.8</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>23.7</v>
+        <v>37.3</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.4</v>
+        <v>12.2</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7</v>
+        <v>14.6</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.5</v>
+        <v>-160</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86.90000000000001</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>REB</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>24.8</v>
+        <v>33.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>36.7</v>
+        <v>35.3</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>6.5</v>
+        <v>-166</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>-115</v>
+        <v>3.5</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>85.79000000000001</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
@@ -807,124 +807,124 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30.8</v>
+        <v>33.3</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>35.3</v>
+        <v>33.7</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>5.5</v>
+        <v>-175</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-115</v>
+        <v>2.5</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84.48999999999999</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>REB</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>36.7</v>
+        <v>24.7</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>7.5</v>
+        <v>-166</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>105</v>
+        <v>3.5</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>83.84999999999999</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>PTS</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24.8</v>
+        <v>31.9</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>36.7</v>
+        <v>35.3</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.8</v>
+        <v>4.4</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.5</v>
+        <v>-160</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-115</v>
+        <v>3.5</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81.40000000000001</v>
+        <v>86.17</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>LeBron James*</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -945,89 +945,89 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>34.8</v>
+        <v>35.9</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>37.7</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>8.5</v>
+        <v>-175</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>120</v>
+        <v>3.5</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>80.61</v>
+        <v>85.98999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32.2</v>
+        <v>33.7</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>37.3</v>
+        <v>35.7</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>4.5</v>
+        <v>-166</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>-150</v>
+        <v>3.5</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80.56</v>
+        <v>85.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>LeBron James*</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1037,319 +1037,319 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>34.8</v>
+        <v>29.1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>37.7</v>
+        <v>33.7</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>7.5</v>
+        <v>-160</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-135</v>
+        <v>2.5</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>79.95999999999999</v>
+        <v>85.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>REB</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30.8</v>
+        <v>35.1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>35.3</v>
+        <v>37.7</v>
       </c>
       <c r="H16" s="5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="5" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J16" s="5" t="n">
+        <v>-160</v>
+      </c>
+      <c r="K16" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="K16" s="5" t="n">
-        <v>130</v>
-      </c>
       <c r="L16" s="5" t="n">
-        <v>79.41</v>
+        <v>85.01000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Terance Mann</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>PTS</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="E17" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>25</v>
+        <v>35.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>25</v>
+        <v>37.7</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>7.5</v>
+        <v>-150</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-135</v>
+        <v>3.5</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>79.27</v>
+        <v>84.70999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>LeBron James*</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>PTS</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34.8</v>
+        <v>33.5</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>37.7</v>
+        <v>35</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>24.9</v>
+        <v>5.1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>25.6</v>
+        <v>4.4</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>24.5</v>
+        <v>-160</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-115</v>
+        <v>3.5</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78.06999999999999</v>
+        <v>84.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
       <c r="E19" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>34.3</v>
+        <v>29.9</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>36.3</v>
+        <v>29.3</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>8.5</v>
+        <v>11.6</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>7.8</v>
+        <v>13.2</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>9.5</v>
+        <v>-145</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>-105</v>
+        <v>11.5</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>76.68000000000001</v>
+        <v>84.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jerami Grant*</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>REB</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>36</v>
+        <v>35.3</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.5</v>
+        <v>-160</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>-145</v>
+        <v>3.5</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75.43000000000001</v>
+        <v>83.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Anthony Davis*</t>
+          <t>Andrew Wiggins*</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>PTS</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="E21" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>35.9</v>
+        <v>27.1</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>36.7</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>3.7</v>
+        <v>12.2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>3.6</v>
+        <v>14.6</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>3.5</v>
+        <v>-135</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-115</v>
+        <v>11.5</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>75.2</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -1359,43 +1359,43 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25.5</v>
+        <v>33.9</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>36.7</v>
+        <v>38</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.5</v>
+        <v>23.2</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>11.5</v>
+        <v>-120</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-130</v>
+        <v>24.5</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74.73999999999999</v>
+        <v>82.26000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1405,43 +1405,43 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
       <c r="E23" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>18.4</v>
+        <v>35.5</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>23.7</v>
+        <v>33.7</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>7.5</v>
+        <v>-145</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-140</v>
+        <v>4.5</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>74.59999999999999</v>
+        <v>82.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Coby White</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37.6</v>
+        <v>36.1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>43.7</v>
+        <v>40.3</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.8</v>
+        <v>19.4</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>44</v>
+        <v>24.4</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>34.5</v>
+        <v>-130</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-115</v>
+        <v>24.5</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>73.03</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1487,53 +1487,53 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>PTS</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
       <c r="E25" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>31</v>
+        <v>36.7</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>6.2</v>
+        <v>15.5</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>6.6</v>
+        <v>19.8</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>6.5</v>
+        <v>-140</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>72.84</v>
+        <v>81.78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -1543,32 +1543,32 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16.2</v>
+        <v>26.9</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.7</v>
+        <v>35.3</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>7.5</v>
+        <v>-130</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>-135</v>
+        <v>4.5</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72.29000000000001</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="27">
